--- a/REGULAR/SP-VMO/MONTENEGRO, HENRY DE SAGUN.xlsx
+++ b/REGULAR/SP-VMO/MONTENEGRO, HENRY DE SAGUN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="280">
   <si>
     <t>PERIOD</t>
   </si>
@@ -871,6 +871,9 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>12/20-22,27,28/2023</t>
   </si>
 </sst>
 </file>
@@ -3341,10 +3344,10 @@
   </sheetPr>
   <dimension ref="A2:M579"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1800" topLeftCell="A516"/>
-      <selection activeCell="M10" sqref="M10"/>
-      <selection pane="bottomLeft" activeCell="F540" sqref="F540"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A528" activePane="bottomLeft"/>
+      <selection activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="E549" sqref="E549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3507,7 +3510,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>110.22499999999991</v>
+        <v>108.97499999999991</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3517,14 +3520,11 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>64</v>
+        <v>66.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
-      <c r="M9" s="46">
-        <f>SUM(E9,I9)</f>
-        <v>174.22499999999991</v>
-      </c>
+      <c r="M9" s="46"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
@@ -15442,32 +15442,42 @@
       <c r="A536" s="40">
         <v>45170</v>
       </c>
-      <c r="B536" s="20"/>
-      <c r="C536" s="13"/>
+      <c r="B536" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C536" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D536" s="39"/>
       <c r="E536" s="9"/>
       <c r="F536" s="20"/>
-      <c r="G536" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H536" s="39"/>
+      <c r="G536" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H536" s="39">
+        <v>1</v>
+      </c>
       <c r="I536" s="9"/>
       <c r="J536" s="11"/>
-      <c r="K536" s="20"/>
+      <c r="K536" s="50">
+        <v>45197</v>
+      </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>45200</v>
       </c>
       <c r="B537" s="20"/>
-      <c r="C537" s="13"/>
+      <c r="C537" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D537" s="39"/>
       <c r="E537" s="9"/>
       <c r="F537" s="20"/>
-      <c r="G537" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G537" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H537" s="39"/>
       <c r="I537" s="9"/>
@@ -15478,19 +15488,27 @@
       <c r="A538" s="40">
         <v>45231</v>
       </c>
-      <c r="B538" s="20"/>
-      <c r="C538" s="13"/>
-      <c r="D538" s="39"/>
+      <c r="B538" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C538" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D538" s="39">
+        <v>5</v>
+      </c>
       <c r="E538" s="9"/>
       <c r="F538" s="20"/>
-      <c r="G538" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G538" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H538" s="39"/>
       <c r="I538" s="9"/>
       <c r="J538" s="11"/>
-      <c r="K538" s="20"/>
+      <c r="K538" s="20" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
